--- a/medicine/Œil et vue/Système_Lana/Système_Lana.xlsx
+++ b/medicine/Œil et vue/Système_Lana/Système_Lana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_Lana</t>
+          <t>Système_Lana</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le système Lana est un système d'écriture en relief inventé en 1670 par Francesco Lana de Terzi, un jésuite italien.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_Lana</t>
+          <t>Système_Lana</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le procédé d’impression en relief est basé sur une grille ouverte de trois fois trois cases dans laquelle sont placées les lettres de l'alphabet.
 Chaque lettre de cette écriture prend la forme de la cellule contenant la lettre latine désirée (en fonction de la présence ou de l’absence des bordures) et contient un nombre de points égal à la position de la lettre dans la cellule. Ainsi, la lettre A étant en première position dans une cellule ouverte en haut et à gauche, elle s’écrira comme un « � » contenant un point.
